--- a/db/AiCity-81-MyCommunity-01.xlsx
+++ b/db/AiCity-81-MyCommunity-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEBEFAD-1CB9-D743-9CF6-D588E6A9EB46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B5220B-3D53-5D44-8D4A-AF8BB333F396}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23000" yWindow="3700" windowWidth="28260" windowHeight="17560" xr2:uid="{87CCD8CC-8669-AC48-A486-17AD04E3F228}"/>
+    <workbookView xWindow="21760" yWindow="4140" windowWidth="28260" windowHeight="17560" xr2:uid="{87CCD8CC-8669-AC48-A486-17AD04E3F228}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,14 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>廚藝教室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,22 +80,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>焦糖拿鐵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>榛果咖味</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红茶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缘茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可樂</t>
   </si>
   <si>
@@ -111,27 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
     <t>40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鲜奶红茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>披薩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雞塊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,25 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>主食類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水餃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,24 +179,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>燴飯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>紅燒牛肉麵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>018</t>
+    <t>焦糖/榛果拿鐵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麵食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飯類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅燒牛腩飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰式咖哩飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椒麻雞丁飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -631,13 +643,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FEC1C9-8ED0-D945-92F8-096393DC8DB2}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -656,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -670,276 +682,282 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -947,76 +965,65 @@
         <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F20">
+    <sortCondition ref="A2:A20"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-81-MyCommunity-01.xlsx
+++ b/db/AiCity-81-MyCommunity-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B5220B-3D53-5D44-8D4A-AF8BB333F396}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBD0FBA-C949-2542-A4D4-5FE24E3D440F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21760" yWindow="4140" windowWidth="28260" windowHeight="17560" xr2:uid="{87CCD8CC-8669-AC48-A486-17AD04E3F228}"/>
+    <workbookView xWindow="36260" yWindow="7880" windowWidth="28260" windowHeight="17560" xr2:uid="{87CCD8CC-8669-AC48-A486-17AD04E3F228}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,26 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>點心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,14 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>巧克力, 鲜奶油, 蜂蜜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,14 +140,6 @@
   </si>
   <si>
     <t>紅醬, 白醬, 青醬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -322,11 +286,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,7 +616,7 @@
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -682,207 +649,207 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="F3" s="2">
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="F4" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="F9" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
+      <c r="F10" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
+      <c r="F11" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -896,13 +863,13 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
+      <c r="F12" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -916,13 +883,13 @@
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
+      <c r="F13" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -931,18 +898,18 @@
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
+      <c r="F14" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -956,13 +923,13 @@
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
+      <c r="F15" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -971,18 +938,18 @@
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>18</v>
+      <c r="F16" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
@@ -994,15 +961,15 @@
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="F17" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -1014,10 +981,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="F18" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
